--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-03-using-date-and-time-functions.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-03-using-date-and-time-functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{484DB26D-3CAB-4281-BE7C-663320DDA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{026E869B-8BB4-4780-AF44-9756C41281A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87E8007-957F-4092-82B7-A80E00F2007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{52661FE0-CCBD-4474-96C3-1CE6DB4DE0BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{52661FE0-CCBD-4474-96C3-1CE6DB4DE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Date Functions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t>Time Functions</t>
+  </si>
+  <si>
+    <t>TEXT()</t>
+  </si>
+  <si>
+    <t>DAY()</t>
+  </si>
+  <si>
+    <t>MONTH()</t>
+  </si>
+  <si>
+    <t>YEAR()</t>
+  </si>
+  <si>
+    <t>WEEKDAY()</t>
+  </si>
+  <si>
+    <t>DATE()</t>
+  </si>
+  <si>
+    <t>TIME()</t>
+  </si>
+  <si>
+    <t>HOUR()</t>
+  </si>
+  <si>
+    <t>MINUTE()</t>
+  </si>
+  <si>
+    <t>SECOND()</t>
   </si>
 </sst>
 </file>
@@ -93,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -191,20 +221,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -536,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -560,6 +590,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
@@ -608,13 +661,34 @@
       <c r="B4" s="10">
         <v>5095</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="11">
+        <f>DAY(A4)</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f>TEXT(A4,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E4" s="11">
+        <f>MONTH(A4)</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>TEXT(A4,"mmmm")</f>
+        <v>December</v>
+      </c>
+      <c r="G4" s="11">
+        <f>YEAR(A4)</f>
+        <v>2020</v>
+      </c>
+      <c r="H4" s="11">
+        <f>WEEKDAY(A4,2)</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="11" t="str">
+        <f>IF(H4&gt;5,"Yes","No")</f>
+        <v>No</v>
+      </c>
       <c r="K4" s="6">
         <v>2016</v>
       </c>
@@ -624,7 +698,10 @@
       <c r="M4" s="7">
         <v>10</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="8">
+        <f>DATE(K4,L4,M4)</f>
+        <v>42410</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -633,13 +710,34 @@
       <c r="B5" s="10">
         <v>5484</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5:C32" si="0">DAY(A5)</f>
+        <v>15</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f t="shared" ref="D5:D32" si="1">TEXT(A5,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E32" si="2">MONTH(A5)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f t="shared" ref="F5:F32" si="3">TEXT(A5,"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G32" si="4">YEAR(A5)</f>
+        <v>2020</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" ref="H5:H32" si="5">WEEKDAY(A5,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f t="shared" ref="I5:I32" si="6">IF(H5&gt;5,"Yes","No")</f>
+        <v>No</v>
+      </c>
       <c r="K5" s="7">
         <v>2017</v>
       </c>
@@ -649,7 +747,10 @@
       <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N9" si="7">DATE(K5,L5,M5)</f>
+        <v>42805</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -658,13 +759,34 @@
       <c r="B6" s="10">
         <v>9134</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>December</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K6" s="6">
         <v>2018</v>
       </c>
@@ -674,7 +796,10 @@
       <c r="M6" s="7">
         <v>12</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="8">
+        <f t="shared" si="7"/>
+        <v>43202</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -683,13 +808,34 @@
       <c r="B7" s="10">
         <v>6162</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>July</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K7" s="7">
         <v>2019</v>
       </c>
@@ -699,7 +845,10 @@
       <c r="M7" s="7">
         <v>14</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8">
+        <f t="shared" si="7"/>
+        <v>43599</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -708,13 +857,34 @@
       <c r="B8" s="10">
         <v>6258</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>December</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K8" s="6">
         <v>2020</v>
       </c>
@@ -724,7 +894,10 @@
       <c r="M8" s="7">
         <v>20</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8">
+        <f t="shared" si="7"/>
+        <v>44002</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -733,13 +906,34 @@
       <c r="B9" s="10">
         <v>5312</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>July</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K9" s="7">
         <v>2021</v>
       </c>
@@ -749,7 +943,10 @@
       <c r="M9" s="7">
         <v>23</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="8">
+        <f t="shared" si="7"/>
+        <v>44400</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -758,13 +955,37 @@
       <c r="B10" s="10">
         <v>9286</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>November</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -773,13 +994,34 @@
       <c r="B11" s="10">
         <v>4936</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>July</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>10</v>
       </c>
@@ -800,13 +1042,34 @@
       <c r="B12" s="10">
         <v>8374</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>January</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K12" s="6">
         <v>12</v>
       </c>
@@ -816,7 +1079,10 @@
       <c r="M12" s="6">
         <v>1</v>
       </c>
-      <c r="N12" s="15"/>
+      <c r="N12" s="15">
+        <f>TIME(K12,L12,M12)</f>
+        <v>0.51390046296296299</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -825,13 +1091,34 @@
       <c r="B13" s="10">
         <v>9648</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>July</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
@@ -841,7 +1128,10 @@
       <c r="M13" s="6">
         <v>2</v>
       </c>
-      <c r="N13" s="15"/>
+      <c r="N13" s="15">
+        <f t="shared" ref="N13:N18" si="8">TIME(K13,L13,M13)</f>
+        <v>0.47293981481481479</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -850,13 +1140,34 @@
       <c r="B14" s="10">
         <v>8994</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>March</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
       <c r="K14" s="6">
         <v>10</v>
       </c>
@@ -866,7 +1177,10 @@
       <c r="M14" s="6">
         <v>3</v>
       </c>
-      <c r="N14" s="15"/>
+      <c r="N14" s="15">
+        <f t="shared" si="8"/>
+        <v>0.43197916666666664</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -875,13 +1189,34 @@
       <c r="B15" s="10">
         <v>8877</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>November</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
       <c r="K15" s="6">
         <v>9</v>
       </c>
@@ -891,7 +1226,10 @@
       <c r="M15" s="6">
         <v>4</v>
       </c>
-      <c r="N15" s="15"/>
+      <c r="N15" s="15">
+        <f t="shared" si="8"/>
+        <v>0.39101851851851849</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -900,13 +1238,34 @@
       <c r="B16" s="10">
         <v>5053</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>May</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K16" s="6">
         <v>8</v>
       </c>
@@ -916,7 +1275,10 @@
       <c r="M16" s="6">
         <v>5</v>
       </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="15">
+        <f t="shared" si="8"/>
+        <v>0.35005787037037034</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -925,13 +1287,34 @@
       <c r="B17" s="10">
         <v>6987</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>November</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K17" s="6">
         <v>7</v>
       </c>
@@ -941,7 +1324,10 @@
       <c r="M17" s="6">
         <v>6</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="15">
+        <f t="shared" si="8"/>
+        <v>0.30909722222222219</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -950,13 +1336,34 @@
       <c r="B18" s="10">
         <v>7519</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>February</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="K18" s="6">
         <v>6</v>
       </c>
@@ -966,7 +1373,10 @@
       <c r="M18" s="6">
         <v>7</v>
       </c>
-      <c r="N18" s="15"/>
+      <c r="N18" s="15">
+        <f t="shared" si="8"/>
+        <v>0.26813657407407404</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -975,13 +1385,34 @@
       <c r="B19" s="10">
         <v>8459</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>June</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -990,13 +1421,34 @@
       <c r="B20" s="10">
         <v>5802</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>May</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -1005,13 +1457,34 @@
       <c r="B21" s="10">
         <v>4706</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="C21" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>February</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I21" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -1020,13 +1493,34 @@
       <c r="B22" s="10">
         <v>7777</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="C22" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>April</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -1035,13 +1529,34 @@
       <c r="B23" s="10">
         <v>9701</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="C23" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F23" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>May</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -1050,13 +1565,34 @@
       <c r="B24" s="10">
         <v>4472</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="C24" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>February</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1065,13 +1601,34 @@
       <c r="B25" s="10">
         <v>8831</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="C25" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F25" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>July</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -1080,13 +1637,34 @@
       <c r="B26" s="10">
         <v>4686</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="C26" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F26" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>September</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I26" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -1095,13 +1673,34 @@
       <c r="B27" s="10">
         <v>9035</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="C27" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>February</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -1110,13 +1709,34 @@
       <c r="B28" s="10">
         <v>3430</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="C28" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>March</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -1125,13 +1745,34 @@
       <c r="B29" s="10">
         <v>8896</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="C29" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>July</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -1140,13 +1781,34 @@
       <c r="B30" s="10">
         <v>6431</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="C30" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F30" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>October</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
@@ -1155,13 +1817,34 @@
       <c r="B31" s="10">
         <v>6153</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="C31" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F31" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>November</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
@@ -1170,13 +1853,34 @@
       <c r="B32" s="10">
         <v>6876</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="C32" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D32" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F32" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>December</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1190,8 +1894,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1911,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>9</v>
@@ -1225,193 +1940,409 @@
       <c r="A4" s="13">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="14">
+        <f>HOUR(A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f>MINUTE(A4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <f>SECOND(A4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="14">
+        <f t="shared" ref="B5:B27" si="0">HOUR(A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" ref="C5:C27" si="1">MINUTE(A5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" ref="D5:D27" si="2">SECOND(A5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>0.125</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>0.25</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>0.375</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>0.5</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>0.625</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>0.75</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>0.875</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
